--- a/prod_DTX.xlsx
+++ b/prod_DTX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{515516C4-1651-4E09-A275-B4393A99210E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54B23CD-C935-440B-9EFA-0DF5AA055926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{085FDA9C-94F9-42A8-9CA9-2137B3441D84}"/>
   </bookViews>
@@ -25,7 +25,6 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_______________________r" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -64,9 +63,9 @@
     <definedName name="__123Graph_CTOTX" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_CTOTXVOL" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_CXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_D" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="__123Graph_D" hidden="1">[2]E!#REF!</definedName>
     <definedName name="__123Graph_DCURRENT" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_E" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="__123Graph_E" hidden="1">[2]E!#REF!</definedName>
     <definedName name="__123Graph_ECURRENT" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_X" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XCAFCAC" hidden="1">[1]export!#REF!</definedName>
@@ -74,38 +73,38 @@
     <definedName name="__123Graph_XTOTX" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XTOTXVOL" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="_123graph_b" hidden="1">[4]A!#REF!</definedName>
+    <definedName name="_123graph_b" hidden="1">[3]A!#REF!</definedName>
     <definedName name="_12no" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_Fill1" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" hidden="1">[5]C!$P$428:$T$428</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1">[4]C!$P$428:$T$428</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_new1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Parse_In" hidden="1">#REF!</definedName>
     <definedName name="_Parse_Out" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Int" hidden="1">1</definedName>
-    <definedName name="_Regression_Out" hidden="1">[5]C!$AK$18:$AK$18</definedName>
-    <definedName name="_Regression_X" hidden="1">[5]C!$AK$11:$AU$11</definedName>
-    <definedName name="_Regression_Y" hidden="1">[5]C!$AK$10:$AU$10</definedName>
+    <definedName name="_Regression_Out" hidden="1">[4]C!$AK$18:$AK$18</definedName>
+    <definedName name="_Regression_X" hidden="1">[4]C!$AK$11:$AU$11</definedName>
+    <definedName name="_Regression_Y" hidden="1">[4]C!$AK$10:$AU$10</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
-    <definedName name="ACwvu.Print." hidden="1">[6]Med!#REF!</definedName>
+    <definedName name="ACwvu.Print." hidden="1">[5]Med!#REF!</definedName>
     <definedName name="awea" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="cashplan" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="CRES" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="CRISa" hidden="1">[7]A!#REF!</definedName>
+    <definedName name="CRISa" hidden="1">[6]A!#REF!</definedName>
     <definedName name="e" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferes1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferger" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferger1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferges" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="graphe" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="graphe" hidden="1">[2]E!#REF!</definedName>
     <definedName name="kol" hidden="1">#REF!</definedName>
     <definedName name="KONAN" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="kossi" hidden="1">#REF!</definedName>
     <definedName name="new" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="nnnnnnnnnnn" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="pol" hidden="1">[4]A!#REF!</definedName>
+    <definedName name="pol" hidden="1">[3]A!#REF!</definedName>
     <definedName name="popl" hidden="1">#REF!</definedName>
     <definedName name="PROJA" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="q" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -113,7 +112,7 @@
     <definedName name="rtre" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="Rwvu.Print." hidden="1">#N/A</definedName>
     <definedName name="s" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="Swvu.Print." hidden="1">[6]Med!#REF!</definedName>
+    <definedName name="Swvu.Print." hidden="1">[5]Med!#REF!</definedName>
     <definedName name="tenou" hidden="1">#REF!</definedName>
     <definedName name="tyi" hidden="1">#REF!</definedName>
     <definedName name="wrn.Main._.Economic._.Indicators." hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -317,268 +316,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="pro"/>
-      <sheetName val="ind"/>
-      <sheetName val="VA"/>
-      <sheetName val="conso"/>
-      <sheetName val="Tables du Contenu"/>
-      <sheetName val="Indications"/>
-      <sheetName val="MAP"/>
-      <sheetName val="Data_Eviews"/>
-      <sheetName val="Ind_rel_Prod_CST (2)"/>
-      <sheetName val="Resultats _Reg_Coef"/>
-      <sheetName val="Resultats _Reg_Filted"/>
-      <sheetName val="Resultats _Reg_Resid"/>
-      <sheetName val="Resultats_Ind_Forecast"/>
-      <sheetName val="Data Indicateurs_Trim"/>
-      <sheetName val="AGV_CNA"/>
-      <sheetName val="Feuil1"/>
-      <sheetName val="Feuil2"/>
-      <sheetName val="AGV_IND"/>
-      <sheetName val="AGV_ETALONNAGE"/>
-      <sheetName val="AGV_RESIDUS"/>
-      <sheetName val="AGV_CALAGE"/>
-      <sheetName val="AVG_PREVISION"/>
-      <sheetName val="AEX_CNA"/>
-      <sheetName val="AEX_IND"/>
-      <sheetName val="AEX_ETALONNAGE"/>
-      <sheetName val="AEX_RESIDUS"/>
-      <sheetName val="AEX_CALAGE"/>
-      <sheetName val="AEX_PREVISION"/>
-      <sheetName val="ELE_CNA"/>
-      <sheetName val="ELE_CALAGE"/>
-      <sheetName val="ELE_PREVISION"/>
-      <sheetName val="SYL_CNA"/>
-      <sheetName val="SYL_CALAGE"/>
-      <sheetName val="SYL_PREVISION"/>
-      <sheetName val="EXT_CNA"/>
-      <sheetName val="EXT_IND"/>
-      <sheetName val="EXT_ETALONNAGE"/>
-      <sheetName val="EXT_RESIDUS"/>
-      <sheetName val="EXT_CALAGE"/>
-      <sheetName val="EXT_PREVISION"/>
-      <sheetName val="AUI_CNA"/>
-      <sheetName val="AUI_IND"/>
-      <sheetName val="AUI_ETALONNAGE"/>
-      <sheetName val="AUI_RESIDUS"/>
-      <sheetName val="AUI_CALAGE"/>
-      <sheetName val="AUI_PREVISION"/>
-      <sheetName val="RAF_CNA"/>
-      <sheetName val="RAF_IND"/>
-      <sheetName val="RAF_ETALONNAGE"/>
-      <sheetName val="RAF_RESIDUS"/>
-      <sheetName val="RAF_CALAGE"/>
-      <sheetName val="RAF_PREVISION"/>
-      <sheetName val="ENE_CNA"/>
-      <sheetName val="ENE_IND"/>
-      <sheetName val="ENE_ETALONNAGE"/>
-      <sheetName val="ENE_RESIDUS"/>
-      <sheetName val="ENE_CALAGE"/>
-      <sheetName val="ENE_PREVISION"/>
-      <sheetName val="IAA_CNA"/>
-      <sheetName val="IAA_IND"/>
-      <sheetName val="IAA_ETALONNAGE"/>
-      <sheetName val="IAA_RESIDUS"/>
-      <sheetName val="IAA_CALAGE"/>
-      <sheetName val="IAA_PREVISION"/>
-      <sheetName val="BFA_CNA"/>
-      <sheetName val="BFA_IND"/>
-      <sheetName val="BFA_ETALONNAGE"/>
-      <sheetName val="BFA_RESIDUS"/>
-      <sheetName val="BFA_CALAGE"/>
-      <sheetName val="BFA_PREVISION"/>
-      <sheetName val="BTP_CNA"/>
-      <sheetName val="BTP_IND"/>
-      <sheetName val="BTP_ETALONNAGE"/>
-      <sheetName val="BTP_RESIDUS"/>
-      <sheetName val="BTP_CALAGE"/>
-      <sheetName val="BTP_PREVISION"/>
-      <sheetName val="COM_CNA"/>
-      <sheetName val="COM_IND"/>
-      <sheetName val="COM_ETALONNAGE"/>
-      <sheetName val="COM_RESIDUS"/>
-      <sheetName val="COM_CALAGE"/>
-      <sheetName val="COM_PREVISION"/>
-      <sheetName val="HOT_CNA"/>
-      <sheetName val="HOT_IND"/>
-      <sheetName val="HOT_ETALONNAGE"/>
-      <sheetName val="HOT_RESIDUS"/>
-      <sheetName val="HOT_CALAGE"/>
-      <sheetName val="HOT_PREVISION"/>
-      <sheetName val="TEL_CNA"/>
-      <sheetName val="TEL_IND"/>
-      <sheetName val="TEL_ETALONNAGE"/>
-      <sheetName val="TEL_RESIDUS"/>
-      <sheetName val="TEL_CALAGE"/>
-      <sheetName val="TEL_PREVISION"/>
-      <sheetName val="TRA_CNA"/>
-      <sheetName val="TRA_IND"/>
-      <sheetName val="TRA_ETALONNAGE"/>
-      <sheetName val="TRA_RESIDUS"/>
-      <sheetName val="TRA_CALAGE"/>
-      <sheetName val="TRA_PREVISION"/>
-      <sheetName val="AUS_CNA"/>
-      <sheetName val="AUS_IND"/>
-      <sheetName val="AUS_ETALONNAGE"/>
-      <sheetName val="AUS_RESIDUS"/>
-      <sheetName val="AUS_CALAGE"/>
-      <sheetName val="AUS_PREVISION"/>
-      <sheetName val="APU_CNA"/>
-      <sheetName val="APU_IND"/>
-      <sheetName val="APU_ETALONNAGE"/>
-      <sheetName val="APU_RESIDUS"/>
-      <sheetName val="APU_CALAGE"/>
-      <sheetName val="APU_PREVISION"/>
-      <sheetName val="DTX_CNA"/>
-      <sheetName val="DTX_IND"/>
-      <sheetName val="DTX_ETALONNAGE"/>
-      <sheetName val="DTX_RESIDUS"/>
-      <sheetName val="DTX_CALAGE"/>
-      <sheetName val="DTX_PREVISION"/>
-      <sheetName val="FRANCS CST_2015_op1"/>
-      <sheetName val="FRANCS CST_2015_op2"/>
-      <sheetName val="Option"/>
-      <sheetName val="FRANCS CST_2015"/>
-      <sheetName val="FRANCS CST_2015_Croissance"/>
-      <sheetName val="FRANCS CST_2015_Contributions"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
-      <sheetData sheetId="88"/>
-      <sheetData sheetId="89"/>
-      <sheetData sheetId="90"/>
-      <sheetData sheetId="91"/>
-      <sheetData sheetId="92"/>
-      <sheetData sheetId="93"/>
-      <sheetData sheetId="94"/>
-      <sheetData sheetId="95"/>
-      <sheetData sheetId="96"/>
-      <sheetData sheetId="97"/>
-      <sheetData sheetId="98"/>
-      <sheetData sheetId="99"/>
-      <sheetData sheetId="100"/>
-      <sheetData sheetId="101"/>
-      <sheetData sheetId="102"/>
-      <sheetData sheetId="103"/>
-      <sheetData sheetId="104"/>
-      <sheetData sheetId="105"/>
-      <sheetData sheetId="106"/>
-      <sheetData sheetId="107"/>
-      <sheetData sheetId="108"/>
-      <sheetData sheetId="109"/>
-      <sheetData sheetId="110"/>
-      <sheetData sheetId="111"/>
-      <sheetData sheetId="112"/>
-      <sheetData sheetId="113"/>
-      <sheetData sheetId="114"/>
-      <sheetData sheetId="115"/>
-      <sheetData sheetId="116"/>
-      <sheetData sheetId="117"/>
-      <sheetData sheetId="118"/>
-      <sheetData sheetId="119"/>
-      <sheetData sheetId="120"/>
-      <sheetData sheetId="121"/>
-      <sheetData sheetId="122"/>
-      <sheetData sheetId="123"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -791,7 +528,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -912,7 +649,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1212,7 +949,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1275,7 +1012,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1729,7 +1466,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1750,7 +1487,7 @@
         <v>1996</v>
       </c>
       <c r="B2" s="1">
-        <v>1071981.5531803041</v>
+        <v>689569</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1758,7 +1495,7 @@
         <v>1997</v>
       </c>
       <c r="B3" s="1">
-        <v>1086535.7039443441</v>
+        <v>686496</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1766,7 +1503,7 @@
         <v>1998</v>
       </c>
       <c r="B4" s="1">
-        <v>1104983.0594843852</v>
+        <v>726689</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1774,7 +1511,7 @@
         <v>1999</v>
       </c>
       <c r="B5" s="1">
-        <v>963704.78306671581</v>
+        <v>597520</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1782,7 +1519,7 @@
         <v>2000</v>
       </c>
       <c r="B6" s="1">
-        <v>945990.28082493623</v>
+        <v>622389</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1790,7 +1527,7 @@
         <v>2001</v>
       </c>
       <c r="B7" s="1">
-        <v>930722.71517897362</v>
+        <v>686246</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1798,7 +1535,7 @@
         <v>2002</v>
       </c>
       <c r="B8" s="1">
-        <v>1057337.6441696975</v>
+        <v>819599</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1806,7 +1543,7 @@
         <v>2003</v>
       </c>
       <c r="B9" s="1">
-        <v>1117902.7684626032</v>
+        <v>870647</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1814,7 +1551,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="1">
-        <v>1256432.5639295208</v>
+        <v>990331</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1822,7 +1559,7 @@
         <v>2005</v>
       </c>
       <c r="B11" s="1">
-        <v>1189856.4708432767</v>
+        <v>953418</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1830,7 +1567,7 @@
         <v>2006</v>
       </c>
       <c r="B12" s="1">
-        <v>1236989.1662027198</v>
+        <v>985082</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1838,7 +1575,7 @@
         <v>2007</v>
       </c>
       <c r="B13" s="1">
-        <v>1302568.2104731307</v>
+        <v>1083865</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1846,7 +1583,7 @@
         <v>2008</v>
       </c>
       <c r="B14" s="1">
-        <v>1237643.039560745</v>
+        <v>1118119</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1854,7 +1591,7 @@
         <v>2009</v>
       </c>
       <c r="B15" s="1">
-        <v>1254727.2209089387</v>
+        <v>1187401</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1862,7 +1599,7 @@
         <v>2010</v>
       </c>
       <c r="B16" s="1">
-        <v>1206495.8700359438</v>
+        <v>1155632</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1870,7 +1607,7 @@
         <v>2011</v>
       </c>
       <c r="B17" s="1">
-        <v>1112020.8544587812</v>
+        <v>929833</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1878,7 +1615,7 @@
         <v>2012</v>
       </c>
       <c r="B18" s="1">
-        <v>1462620.5966589863</v>
+        <v>1403276</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1886,7 +1623,7 @@
         <v>2013</v>
       </c>
       <c r="B19" s="1">
-        <v>1486238.4543876173</v>
+        <v>1590431</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1894,7 +1631,7 @@
         <v>2014</v>
       </c>
       <c r="B20" s="1">
-        <v>1605684.7941305023</v>
+        <v>1834812</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1902,7 +1639,7 @@
         <v>2015</v>
       </c>
       <c r="B21" s="1">
-        <v>1999783</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1910,7 +1647,7 @@
         <v>2016</v>
       </c>
       <c r="B22" s="1">
-        <v>2038236</v>
+        <v>2080000</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1918,7 +1655,7 @@
         <v>2017</v>
       </c>
       <c r="B23" s="1">
-        <v>2451701.3457828108</v>
+        <v>2287000</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1926,7 +1663,7 @@
         <v>2018</v>
       </c>
       <c r="B24" s="1">
-        <v>2600850.2537295958</v>
+        <v>2411000</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1934,7 +1671,7 @@
         <v>2019</v>
       </c>
       <c r="B25" s="1">
-        <v>3002201.8139454219</v>
+        <v>2714431</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1942,7 +1679,7 @@
         <v>2020</v>
       </c>
       <c r="B26" s="1">
-        <v>3415686.0456909742</v>
+        <v>2463842</v>
       </c>
     </row>
   </sheetData>
@@ -2784,7 +2521,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2802,8 +2539,7 @@
         <v>1996</v>
       </c>
       <c r="B2">
-        <f>pro!B2 -conso!B2</f>
-        <v>1071981.5531803041</v>
+        <v>689569</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2811,8 +2547,7 @@
         <v>1997</v>
       </c>
       <c r="B3">
-        <f>pro!B3 -conso!B3</f>
-        <v>1086535.7039443441</v>
+        <v>686496</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2820,8 +2555,7 @@
         <v>1998</v>
       </c>
       <c r="B4">
-        <f>pro!B4 -conso!B4</f>
-        <v>1104983.0594843852</v>
+        <v>726689</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2829,8 +2563,7 @@
         <v>1999</v>
       </c>
       <c r="B5">
-        <f>pro!B5 -conso!B5</f>
-        <v>963704.78306671581</v>
+        <v>597520</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2838,8 +2571,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <f>pro!B6 -conso!B6</f>
-        <v>945990.28082493623</v>
+        <v>622389</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2847,8 +2579,7 @@
         <v>2001</v>
       </c>
       <c r="B7">
-        <f>pro!B7 -conso!B7</f>
-        <v>930722.71517897362</v>
+        <v>686246</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2856,8 +2587,7 @@
         <v>2002</v>
       </c>
       <c r="B8">
-        <f>pro!B8 -conso!B8</f>
-        <v>1057337.6441696975</v>
+        <v>819599</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2865,8 +2595,7 @@
         <v>2003</v>
       </c>
       <c r="B9">
-        <f>pro!B9 -conso!B9</f>
-        <v>1117902.7684626032</v>
+        <v>870647</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2874,8 +2603,7 @@
         <v>2004</v>
       </c>
       <c r="B10">
-        <f>pro!B10 -conso!B10</f>
-        <v>1256432.5639295208</v>
+        <v>990331</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2883,8 +2611,7 @@
         <v>2005</v>
       </c>
       <c r="B11">
-        <f>pro!B11 -conso!B11</f>
-        <v>1189856.4708432767</v>
+        <v>953418</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2892,8 +2619,7 @@
         <v>2006</v>
       </c>
       <c r="B12">
-        <f>pro!B12 -conso!B12</f>
-        <v>1236989.1662027198</v>
+        <v>985082</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2901,8 +2627,7 @@
         <v>2007</v>
       </c>
       <c r="B13">
-        <f>pro!B13 -conso!B13</f>
-        <v>1302568.2104731307</v>
+        <v>1083865</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2910,8 +2635,7 @@
         <v>2008</v>
       </c>
       <c r="B14">
-        <f>pro!B14 -conso!B14</f>
-        <v>1237643.039560745</v>
+        <v>1118119</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2919,8 +2643,7 @@
         <v>2009</v>
       </c>
       <c r="B15">
-        <f>pro!B15 -conso!B15</f>
-        <v>1254727.2209089387</v>
+        <v>1187401</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2928,8 +2651,7 @@
         <v>2010</v>
       </c>
       <c r="B16">
-        <f>pro!B16 -conso!B16</f>
-        <v>1206495.8700359438</v>
+        <v>1155632</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2937,8 +2659,7 @@
         <v>2011</v>
       </c>
       <c r="B17">
-        <f>pro!B17 -conso!B17</f>
-        <v>1112020.8544587812</v>
+        <v>929833</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2946,8 +2667,7 @@
         <v>2012</v>
       </c>
       <c r="B18">
-        <f>pro!B18 -conso!B18</f>
-        <v>1462620.5966589863</v>
+        <v>1403276</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2955,8 +2675,7 @@
         <v>2013</v>
       </c>
       <c r="B19">
-        <f>pro!B19 -conso!B19</f>
-        <v>1486238.4543876173</v>
+        <v>1590431</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2964,8 +2683,7 @@
         <v>2014</v>
       </c>
       <c r="B20">
-        <f>pro!B20 -conso!B20</f>
-        <v>1605684.7941305023</v>
+        <v>1834812</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2973,8 +2691,7 @@
         <v>2015</v>
       </c>
       <c r="B21">
-        <f>pro!B21 -conso!B21</f>
-        <v>1999783</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2982,8 +2699,7 @@
         <v>2016</v>
       </c>
       <c r="B22">
-        <f>pro!B22 -conso!B22</f>
-        <v>2038236</v>
+        <v>2080000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2991,8 +2707,7 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <f>pro!B23 -conso!B23</f>
-        <v>2451701.3457828108</v>
+        <v>2287000</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3000,8 +2715,7 @@
         <v>2018</v>
       </c>
       <c r="B24">
-        <f>pro!B24 -conso!B24</f>
-        <v>2600850.2537295958</v>
+        <v>2411000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3009,8 +2723,7 @@
         <v>2019</v>
       </c>
       <c r="B25">
-        <f>pro!B25 -conso!B25</f>
-        <v>3002201.8139454219</v>
+        <v>2714431</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3018,8 +2731,7 @@
         <v>2020</v>
       </c>
       <c r="B26">
-        <f>pro!B26 -conso!B26</f>
-        <v>3415686.0456909742</v>
+        <v>2463842</v>
       </c>
     </row>
   </sheetData>
